--- a/amlak jahani.xlsx
+++ b/amlak jahani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omidr\OneDrive\دسکتاپ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5A6E23-D47E-4505-A08D-89C23C4CD860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0C3C30-CC89-40FB-8194-8B04539CD36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="59">
   <si>
     <t>متراژ</t>
   </si>
@@ -244,6 +244,24 @@
   </si>
   <si>
     <t>با هماهنگی با تماس مشتری برود حسین باشی 21 ابوالخیر 1 پ 22</t>
+  </si>
+  <si>
+    <t>خانه ویلایی شیک در دوطبقه نیم سه خوابه</t>
+  </si>
+  <si>
+    <t>اکبر نیا</t>
+  </si>
+  <si>
+    <t>۳٬۵۰۰٬۰۰۰٬۰۰۰ تومان</t>
+  </si>
+  <si>
+    <t>همکف دارای آشپز خانه سرویس حمام و دستشویی بدون خواب (امکان در آوردن یک خواب دارد) دارای انباری گرمایش از کف_پکیج _سرامیک_پنجره ها دوجداره. طبقه اول دوخوابه_گرمایش از کف_پکیج_سرمایش کولرگازی_کف سیرامیک_پنجره ها دوجداره_درب وردی ضد سرقت_آیفون تصویری_کابینت ها های گلس درجه یک هر دو اتاق دارای کمد دیواری یک اتاق ۱۲ متری در بالای پشت بام کف موزائیک و دیوار یک متری مزیت اصلی امکان ساخت دو طبقه دیگر وجود دارد. بازسازی صفر تا صد. کوچه ۸ متری _عرصه ملک ۱۴ متر</t>
+  </si>
+  <si>
+    <t>مطهری24 یا  عامل 33 یا کریمی30 پلاک 20 بازدید عصر از ساعت 14 تا 20</t>
+  </si>
+  <si>
+    <t>3دانگ قولنامه ای</t>
   </si>
 </sst>
 </file>
@@ -503,7 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -733,11 +751,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1025,9 +1049,9 @@
   </sheetPr>
   <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1038,7 +1062,7 @@
     <col min="4" max="4" width="9.28515625" style="63" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="63" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="62" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" style="62" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" style="63" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="63"/>
@@ -1048,7 +1072,7 @@
     <col min="14" max="14" width="11.28515625" style="62" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.140625" style="62" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" style="63" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18" style="82" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" style="83" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="9.140625" style="63"/>
     <col min="20" max="16384" width="9.140625" style="61"/>
   </cols>
@@ -1099,7 +1123,7 @@
       <c r="P1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="81" t="s">
+      <c r="Q1" s="82" t="s">
         <v>23</v>
       </c>
       <c r="R1" s="7"/>
@@ -1146,7 +1170,7 @@
       <c r="P2" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="82">
+      <c r="Q2" s="83">
         <f ca="1">TODAY()</f>
         <v>44969</v>
       </c>
@@ -1198,7 +1222,7 @@
       <c r="P3" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="82">
+      <c r="Q3" s="83">
         <f ca="1">TODAY()</f>
         <v>44969</v>
       </c>
@@ -1250,7 +1274,7 @@
       <c r="P4" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="82">
+      <c r="Q4" s="83">
         <f t="shared" ref="Q4:Q26" ca="1" si="0">TODAY()</f>
         <v>44969</v>
       </c>
@@ -1295,7 +1319,7 @@
       <c r="M5" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" s="82">
+      <c r="Q5" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>44969</v>
       </c>
@@ -1304,13 +1328,43 @@
       <c r="A6" s="61">
         <v>6</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="D6" s="66"/>
-      <c r="F6" s="65"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="64"/>
-      <c r="Q6" s="82">
+      <c r="B6" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="80">
+        <v>160</v>
+      </c>
+      <c r="E6" s="63">
+        <v>75</v>
+      </c>
+      <c r="F6" s="80">
+        <v>1399</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="62">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="81">
+        <v>9153228969</v>
+      </c>
+      <c r="M6" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>44969</v>
       </c>
@@ -1319,13 +1373,11 @@
       <c r="A7" s="61">
         <v>7</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="D7" s="66"/>
-      <c r="F7" s="65"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="64"/>
-      <c r="Q7" s="82">
+      <c r="F7" s="84"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="81"/>
+      <c r="Q7" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>44969</v>
       </c>
@@ -1341,7 +1393,7 @@
       <c r="H8" s="44"/>
       <c r="K8" s="61"/>
       <c r="L8" s="61"/>
-      <c r="Q8" s="82">
+      <c r="Q8" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>44969</v>
       </c>
@@ -1352,7 +1404,7 @@
       </c>
       <c r="K9" s="61"/>
       <c r="L9" s="61"/>
-      <c r="Q9" s="82">
+      <c r="Q9" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>44969</v>
       </c>
@@ -1364,7 +1416,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="61"/>
       <c r="L10" s="61"/>
-      <c r="Q10" s="82">
+      <c r="Q10" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>44969</v>
       </c>
@@ -1376,7 +1428,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="61"/>
       <c r="L11" s="61"/>
-      <c r="Q11" s="82">
+      <c r="Q11" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>44969</v>
       </c>
@@ -1388,7 +1440,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="61"/>
       <c r="L12" s="61"/>
-      <c r="Q12" s="82">
+      <c r="Q12" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>44969</v>
       </c>
@@ -1400,7 +1452,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="61"/>
       <c r="L13" s="61"/>
-      <c r="Q13" s="82">
+      <c r="Q13" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>44969</v>
       </c>
@@ -1412,7 +1464,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="61"/>
       <c r="L14" s="61"/>
-      <c r="Q14" s="82">
+      <c r="Q14" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>44969</v>
       </c>
@@ -1423,7 +1475,7 @@
       </c>
       <c r="J15" s="3"/>
       <c r="L15" s="61"/>
-      <c r="Q15" s="82">
+      <c r="Q15" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>44969</v>
       </c>
@@ -1435,7 +1487,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="61"/>
       <c r="L16" s="61"/>
-      <c r="Q16" s="82">
+      <c r="Q16" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>44969</v>
       </c>
@@ -1453,7 +1505,7 @@
       <c r="K17" s="53"/>
       <c r="L17" s="80"/>
       <c r="P17" s="63"/>
-      <c r="Q17" s="82">
+      <c r="Q17" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>44969</v>
       </c>
@@ -1483,7 +1535,7 @@
       <c r="K18" s="63"/>
       <c r="L18" s="63"/>
       <c r="P18" s="63"/>
-      <c r="Q18" s="82">
+      <c r="Q18" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>44969</v>
       </c>
@@ -1513,7 +1565,7 @@
       <c r="K19" s="60"/>
       <c r="L19" s="63"/>
       <c r="P19" s="63"/>
-      <c r="Q19" s="82">
+      <c r="Q19" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>44969</v>
       </c>
@@ -1543,7 +1595,7 @@
       <c r="K20" s="63"/>
       <c r="L20" s="63"/>
       <c r="P20" s="63"/>
-      <c r="Q20" s="82">
+      <c r="Q20" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>44969</v>
       </c>
@@ -1573,7 +1625,7 @@
       <c r="K21" s="63"/>
       <c r="L21" s="63"/>
       <c r="P21" s="63"/>
-      <c r="Q21" s="82">
+      <c r="Q21" s="83">
         <f ca="1">TODAY()</f>
         <v>44969</v>
       </c>
@@ -1603,7 +1655,7 @@
       <c r="K22" s="63"/>
       <c r="L22" s="63"/>
       <c r="P22" s="63"/>
-      <c r="Q22" s="82">
+      <c r="Q22" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>44969</v>
       </c>
@@ -1633,7 +1685,7 @@
       <c r="K23" s="63"/>
       <c r="L23" s="63"/>
       <c r="P23" s="63"/>
-      <c r="Q23" s="82">
+      <c r="Q23" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>44969</v>
       </c>
@@ -1663,7 +1715,7 @@
       <c r="K24" s="63"/>
       <c r="L24" s="63"/>
       <c r="P24" s="63"/>
-      <c r="Q24" s="82">
+      <c r="Q24" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>44969</v>
       </c>
@@ -1681,33 +1733,28 @@
       <c r="AC24" s="61"/>
     </row>
     <row r="25" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q25" s="82">
+      <c r="Q25" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>44969</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q26" s="82">
+      <c r="Q26" s="83">
         <f t="shared" ca="1" si="0"/>
         <v>44969</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{08DD4E6C-5187-4F0B-B1E2-6D12EFD4A2FD}"/>
     <hyperlink ref="J3" r:id="rId2" xr:uid="{525D17B6-B822-4670-A707-DBDE56BAC49A}"/>
     <hyperlink ref="J4" r:id="rId3" xr:uid="{FB88F44F-4186-4444-8B0A-471D92F97DFF}"/>
     <hyperlink ref="J5" r:id="rId4" xr:uid="{FDA6CC99-1D46-44D4-9478-6584DA51AF0F}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{F20DBCFB-DF70-4018-906A-5C767E314645}"/>
+    <hyperlink ref="J5:J6" r:id="rId6" display="دیوار" xr:uid="{E19DCAC7-065E-4C88-912D-9C22EA38F062}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/amlak jahani.xlsx
+++ b/amlak jahani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omidr\OneDrive\دسکتاپ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0C3C30-CC89-40FB-8194-8B04539CD36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324AE0BD-5817-44CF-BD08-C55308EFF590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="945" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="فروش ویلایی" sheetId="6" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
   <si>
     <t>متراژ</t>
   </si>
@@ -263,6 +263,33 @@
   <si>
     <t>3دانگ قولنامه ای</t>
   </si>
+  <si>
+    <t>23/11/1401</t>
+  </si>
+  <si>
+    <t>خانه ویلایی 250 متر عرصه 200 متر بنا مطهری 26/1</t>
+  </si>
+  <si>
+    <t>آقای سراج</t>
+  </si>
+  <si>
+    <t>۲۵۰ متر</t>
+  </si>
+  <si>
+    <t>کلنگی</t>
+  </si>
+  <si>
+    <t>۵٬۱۰۰٬۰۰۰٬۰۰۰ تومان</t>
+  </si>
+  <si>
+    <t>سند شش دانگ طلق آماده انتقال 200 متر بنا دارد در 2 طبقه قابل سکونت بدون پایان کار 18 متر حاشیه (*****************ی تمامی انشعابات ایده آل برای سرمایه گذاری</t>
+  </si>
+  <si>
+    <t>26/11/1401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هماهنگی با شماره. آخر سال تخلیه . بر ملک زیاده </t>
+  </si>
 </sst>
 </file>
 
@@ -270,9 +297,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-3000401]0"/>
-    <numFmt numFmtId="170" formatCode="[$-960429]dddd\,\ d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-960429]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +326,12 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -521,7 +554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -706,62 +739,59 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1047,11 +1077,11 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:AC26"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1091,7 @@
     <col min="3" max="3" width="41.7109375" style="63" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="63" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="63" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" style="62" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" style="62" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" style="63" bestFit="1" customWidth="1"/>
@@ -1136,11 +1166,11 @@
       <c r="B2" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="80">
+      <c r="D2" s="77">
         <v>158</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="62">
+      <c r="E2" s="77"/>
+      <c r="F2" s="65">
         <v>1372</v>
       </c>
       <c r="H2" s="62">
@@ -1155,7 +1185,7 @@
       <c r="K2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="80">
+      <c r="L2" s="77">
         <v>9383700217</v>
       </c>
       <c r="M2" s="62" t="s">
@@ -1170,9 +1200,8 @@
       <c r="P2" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="83">
-        <f ca="1">TODAY()</f>
-        <v>44969</v>
+      <c r="Q2" s="83" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1185,11 +1214,11 @@
       <c r="C3" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="80">
+      <c r="D3" s="77">
         <v>115</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="62" t="s">
+      <c r="E3" s="77"/>
+      <c r="F3" s="65" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="62" t="s">
@@ -1207,7 +1236,7 @@
       <c r="K3" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="80">
+      <c r="L3" s="77">
         <v>9355015515</v>
       </c>
       <c r="M3" s="62" t="s">
@@ -1222,9 +1251,8 @@
       <c r="P3" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="83">
-        <f ca="1">TODAY()</f>
-        <v>44969</v>
+      <c r="Q3" s="83" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1237,11 +1265,11 @@
       <c r="C4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="80">
+      <c r="D4" s="77">
         <v>120</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="79">
+      <c r="E4" s="77"/>
+      <c r="F4" s="77">
         <v>1385</v>
       </c>
       <c r="G4" s="62" t="s">
@@ -1274,9 +1302,8 @@
       <c r="P4" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="83">
-        <f t="shared" ref="Q4:Q26" ca="1" si="0">TODAY()</f>
-        <v>44969</v>
+      <c r="Q4" s="83" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1289,13 +1316,13 @@
       <c r="C5" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="80">
+      <c r="D5" s="77">
         <v>130</v>
       </c>
-      <c r="E5" s="80">
+      <c r="E5" s="77">
         <v>96</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="64" t="s">
         <v>48</v>
       </c>
       <c r="G5" s="62" t="s">
@@ -1319,9 +1346,8 @@
       <c r="M5" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" s="83">
-        <f t="shared" ca="1" si="0"/>
-        <v>44969</v>
+      <c r="Q5" s="83" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1334,13 +1360,13 @@
       <c r="C6" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="77">
         <v>160</v>
       </c>
       <c r="E6" s="63">
         <v>75</v>
       </c>
-      <c r="F6" s="80">
+      <c r="F6" s="77">
         <v>1399</v>
       </c>
       <c r="G6" s="62" t="s">
@@ -1358,28 +1384,52 @@
       <c r="K6" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="81">
+      <c r="L6" s="78">
         <v>9153228969</v>
       </c>
       <c r="M6" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="83">
-        <f t="shared" ca="1" si="0"/>
-        <v>44969</v>
+      <c r="Q6" s="83" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61">
         <v>7</v>
       </c>
-      <c r="F7" s="84"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="81"/>
-      <c r="Q7" s="83">
-        <f t="shared" ca="1" si="0"/>
-        <v>44969</v>
+      <c r="B7" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="48">
+        <v>9366709948</v>
+      </c>
+      <c r="M7" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="83" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1393,10 +1443,6 @@
       <c r="H8" s="44"/>
       <c r="K8" s="61"/>
       <c r="L8" s="61"/>
-      <c r="Q8" s="83">
-        <f t="shared" ca="1" si="0"/>
-        <v>44969</v>
-      </c>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -1404,10 +1450,6 @@
       </c>
       <c r="K9" s="61"/>
       <c r="L9" s="61"/>
-      <c r="Q9" s="83">
-        <f t="shared" ca="1" si="0"/>
-        <v>44969</v>
-      </c>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61">
@@ -1416,10 +1458,6 @@
       <c r="J10" s="3"/>
       <c r="K10" s="61"/>
       <c r="L10" s="61"/>
-      <c r="Q10" s="83">
-        <f t="shared" ca="1" si="0"/>
-        <v>44969</v>
-      </c>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61">
@@ -1428,10 +1466,6 @@
       <c r="J11" s="3"/>
       <c r="K11" s="61"/>
       <c r="L11" s="61"/>
-      <c r="Q11" s="83">
-        <f t="shared" ca="1" si="0"/>
-        <v>44969</v>
-      </c>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="61">
@@ -1440,10 +1474,6 @@
       <c r="J12" s="3"/>
       <c r="K12" s="61"/>
       <c r="L12" s="61"/>
-      <c r="Q12" s="83">
-        <f t="shared" ca="1" si="0"/>
-        <v>44969</v>
-      </c>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61">
@@ -1452,10 +1482,6 @@
       <c r="J13" s="3"/>
       <c r="K13" s="61"/>
       <c r="L13" s="61"/>
-      <c r="Q13" s="83">
-        <f t="shared" ca="1" si="0"/>
-        <v>44969</v>
-      </c>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1464,10 +1490,6 @@
       <c r="J14" s="3"/>
       <c r="K14" s="61"/>
       <c r="L14" s="61"/>
-      <c r="Q14" s="83">
-        <f t="shared" ca="1" si="0"/>
-        <v>44969</v>
-      </c>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="61">
@@ -1475,10 +1497,6 @@
       </c>
       <c r="J15" s="3"/>
       <c r="L15" s="61"/>
-      <c r="Q15" s="83">
-        <f t="shared" ca="1" si="0"/>
-        <v>44969</v>
-      </c>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="61">
@@ -1487,10 +1505,6 @@
       <c r="J16" s="3"/>
       <c r="K16" s="61"/>
       <c r="L16" s="61"/>
-      <c r="Q16" s="83">
-        <f t="shared" ca="1" si="0"/>
-        <v>44969</v>
-      </c>
     </row>
     <row r="17" spans="1:29" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="61">
@@ -1500,15 +1514,13 @@
       <c r="C17" s="63"/>
       <c r="D17" s="63"/>
       <c r="E17" s="63"/>
+      <c r="F17" s="65"/>
       <c r="I17" s="63"/>
       <c r="J17" s="3"/>
       <c r="K17" s="53"/>
-      <c r="L17" s="80"/>
+      <c r="L17" s="77"/>
       <c r="P17" s="63"/>
-      <c r="Q17" s="83">
-        <f t="shared" ca="1" si="0"/>
-        <v>44969</v>
-      </c>
+      <c r="Q17" s="83"/>
       <c r="R17" s="63"/>
       <c r="S17" s="63"/>
       <c r="T17" s="61"/>
@@ -1530,15 +1542,13 @@
       <c r="C18" s="63"/>
       <c r="D18" s="63"/>
       <c r="E18" s="63"/>
+      <c r="F18" s="65"/>
       <c r="I18" s="63"/>
       <c r="J18" s="63"/>
       <c r="K18" s="63"/>
       <c r="L18" s="63"/>
       <c r="P18" s="63"/>
-      <c r="Q18" s="83">
-        <f t="shared" ca="1" si="0"/>
-        <v>44969</v>
-      </c>
+      <c r="Q18" s="83"/>
       <c r="R18" s="63"/>
       <c r="S18" s="63"/>
       <c r="T18" s="61"/>
@@ -1560,15 +1570,13 @@
       <c r="C19" s="60"/>
       <c r="D19" s="63"/>
       <c r="E19" s="63"/>
+      <c r="F19" s="65"/>
       <c r="I19" s="63"/>
       <c r="J19" s="3"/>
       <c r="K19" s="60"/>
       <c r="L19" s="63"/>
       <c r="P19" s="63"/>
-      <c r="Q19" s="83">
-        <f t="shared" ca="1" si="0"/>
-        <v>44969</v>
-      </c>
+      <c r="Q19" s="83"/>
       <c r="R19" s="63"/>
       <c r="S19" s="63"/>
       <c r="T19" s="61"/>
@@ -1590,15 +1598,13 @@
       <c r="C20" s="63"/>
       <c r="D20" s="63"/>
       <c r="E20" s="63"/>
+      <c r="F20" s="65"/>
       <c r="I20" s="63"/>
       <c r="J20" s="63"/>
       <c r="K20" s="63"/>
       <c r="L20" s="63"/>
       <c r="P20" s="63"/>
-      <c r="Q20" s="83">
-        <f t="shared" ca="1" si="0"/>
-        <v>44969</v>
-      </c>
+      <c r="Q20" s="83"/>
       <c r="R20" s="63"/>
       <c r="S20" s="63"/>
       <c r="T20" s="61"/>
@@ -1620,15 +1626,13 @@
       <c r="C21" s="63"/>
       <c r="D21" s="63"/>
       <c r="E21" s="63"/>
+      <c r="F21" s="65"/>
       <c r="I21" s="63"/>
       <c r="J21" s="63"/>
       <c r="K21" s="63"/>
       <c r="L21" s="63"/>
       <c r="P21" s="63"/>
-      <c r="Q21" s="83">
-        <f ca="1">TODAY()</f>
-        <v>44969</v>
-      </c>
+      <c r="Q21" s="83"/>
       <c r="R21" s="63"/>
       <c r="S21" s="63"/>
       <c r="T21" s="61"/>
@@ -1650,15 +1654,13 @@
       <c r="C22" s="63"/>
       <c r="D22" s="63"/>
       <c r="E22" s="63"/>
+      <c r="F22" s="65"/>
       <c r="I22" s="63"/>
       <c r="J22" s="63"/>
       <c r="K22" s="63"/>
       <c r="L22" s="63"/>
       <c r="P22" s="63"/>
-      <c r="Q22" s="83">
-        <f t="shared" ca="1" si="0"/>
-        <v>44969</v>
-      </c>
+      <c r="Q22" s="83"/>
       <c r="R22" s="63"/>
       <c r="S22" s="63"/>
       <c r="T22" s="61"/>
@@ -1680,15 +1682,13 @@
       <c r="C23" s="63"/>
       <c r="D23" s="63"/>
       <c r="E23" s="63"/>
+      <c r="F23" s="65"/>
       <c r="I23" s="63"/>
       <c r="J23" s="63"/>
       <c r="K23" s="63"/>
       <c r="L23" s="63"/>
       <c r="P23" s="63"/>
-      <c r="Q23" s="83">
-        <f t="shared" ca="1" si="0"/>
-        <v>44969</v>
-      </c>
+      <c r="Q23" s="83"/>
       <c r="R23" s="63"/>
       <c r="S23" s="63"/>
       <c r="T23" s="61"/>
@@ -1710,15 +1710,13 @@
       <c r="C24" s="63"/>
       <c r="D24" s="63"/>
       <c r="E24" s="63"/>
+      <c r="F24" s="65"/>
       <c r="I24" s="63"/>
       <c r="J24" s="63"/>
       <c r="K24" s="63"/>
       <c r="L24" s="63"/>
       <c r="P24" s="63"/>
-      <c r="Q24" s="83">
-        <f t="shared" ca="1" si="0"/>
-        <v>44969</v>
-      </c>
+      <c r="Q24" s="83"/>
       <c r="R24" s="63"/>
       <c r="S24" s="63"/>
       <c r="T24" s="61"/>
@@ -1732,19 +1730,8 @@
       <c r="AB24" s="61"/>
       <c r="AC24" s="61"/>
     </row>
-    <row r="25" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q25" s="83">
-        <f t="shared" ca="1" si="0"/>
-        <v>44969</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q26" s="83">
-        <f t="shared" ca="1" si="0"/>
-        <v>44969</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{08DD4E6C-5187-4F0B-B1E2-6D12EFD4A2FD}"/>
     <hyperlink ref="J3" r:id="rId2" xr:uid="{525D17B6-B822-4670-A707-DBDE56BAC49A}"/>
@@ -1752,9 +1739,10 @@
     <hyperlink ref="J5" r:id="rId4" xr:uid="{FDA6CC99-1D46-44D4-9478-6584DA51AF0F}"/>
     <hyperlink ref="J6" r:id="rId5" xr:uid="{F20DBCFB-DF70-4018-906A-5C767E314645}"/>
     <hyperlink ref="J5:J6" r:id="rId6" display="دیوار" xr:uid="{E19DCAC7-065E-4C88-912D-9C22EA38F062}"/>
+    <hyperlink ref="J7" r:id="rId7" xr:uid="{AF5E9BD4-40A3-403B-A360-B6D915662BE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1790,7 +1778,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="19" t="s">
@@ -1799,7 +1787,7 @@
       <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="75" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="19" t="s">
@@ -1811,7 +1799,7 @@
       <c r="G1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="76" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="7" t="s">
@@ -1842,11 +1830,11 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="74"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="67"/>
+      <c r="H2" s="66"/>
       <c r="J2" s="46">
         <v>9152404039</v>
       </c>
@@ -1857,7 +1845,7 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="68"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -1868,12 +1856,12 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="69">
+      <c r="A4" s="68">
         <v>4</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="68"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -1889,7 +1877,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="68"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1905,7 +1893,7 @@
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="68"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1920,7 +1908,7 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="68"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1931,12 +1919,12 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="69">
+      <c r="A8" s="68">
         <v>8</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="68"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1952,7 +1940,7 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="68"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -1966,7 +1954,7 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="68"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -1982,7 +1970,7 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="68"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -1993,12 +1981,12 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="69">
+      <c r="A12" s="68">
         <v>12</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="68"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -2014,7 +2002,7 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="68"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -2030,7 +2018,7 @@
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="68"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2046,7 +2034,7 @@
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="68"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -2057,12 +2045,12 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="69">
+      <c r="A16" s="68">
         <v>16</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="68"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -2078,7 +2066,7 @@
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="68"/>
+      <c r="D17" s="67"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -2104,7 +2092,7 @@
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="68"/>
+      <c r="D18" s="67"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -2130,7 +2118,7 @@
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="68"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -2151,16 +2139,16 @@
       <c r="Y19" s="37"/>
     </row>
     <row r="20" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70">
+      <c r="A20" s="69">
         <v>20</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="73"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="72"/>
       <c r="J20" s="57" t="s">
         <v>15</v>
       </c>
@@ -2184,7 +2172,7 @@
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="68"/>
+      <c r="D21" s="67"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -2207,7 +2195,7 @@
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="68"/>
+      <c r="D22" s="67"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -2233,7 +2221,7 @@
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="68"/>
+      <c r="D23" s="67"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -2251,12 +2239,12 @@
       <c r="Y23" s="37"/>
     </row>
     <row r="24" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="69">
+      <c r="A24" s="68">
         <v>24</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="68"/>
+      <c r="D24" s="67"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -2279,7 +2267,7 @@
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="68"/>
+      <c r="D25" s="67"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -2300,7 +2288,7 @@
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="68"/>
+      <c r="D26" s="67"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -2310,7 +2298,7 @@
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="68"/>
+      <c r="D27" s="67"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -2320,7 +2308,7 @@
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="68"/>
+      <c r="D28" s="67"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -2330,7 +2318,7 @@
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="68"/>
+      <c r="D29" s="67"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -2340,7 +2328,7 @@
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="68"/>
+      <c r="D30" s="67"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -2350,7 +2338,7 @@
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="68"/>
+      <c r="D31" s="67"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -2360,7 +2348,7 @@
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="68"/>
+      <c r="D32" s="67"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -2370,7 +2358,7 @@
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="68"/>
+      <c r="D33" s="67"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -2380,7 +2368,7 @@
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="68"/>
+      <c r="D34" s="67"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -2390,7 +2378,7 @@
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="68"/>
+      <c r="D35" s="67"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -2400,7 +2388,7 @@
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="68"/>
+      <c r="D36" s="67"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
@@ -2410,7 +2398,7 @@
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="68"/>
+      <c r="D37" s="67"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
@@ -2420,7 +2408,7 @@
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="68"/>
+      <c r="D38" s="67"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -2430,7 +2418,7 @@
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="68"/>
+      <c r="D39" s="67"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
@@ -2440,7 +2428,7 @@
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="68"/>
+      <c r="D40" s="67"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
@@ -2450,7 +2438,7 @@
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="68"/>
+      <c r="D41" s="67"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -2460,7 +2448,7 @@
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="68"/>
+      <c r="D42" s="67"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -2470,7 +2458,7 @@
       <c r="A43" s="8"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="68"/>
+      <c r="D43" s="67"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
@@ -2480,7 +2468,7 @@
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="68"/>
+      <c r="D44" s="67"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -2490,7 +2478,7 @@
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="68"/>
+      <c r="D45" s="67"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -2500,7 +2488,7 @@
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="68"/>
+      <c r="D46" s="67"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
@@ -2510,7 +2498,7 @@
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="68"/>
+      <c r="D47" s="67"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
@@ -2520,7 +2508,7 @@
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="68"/>
+      <c r="D48" s="67"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
@@ -2530,7 +2518,7 @@
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
-      <c r="D49" s="68"/>
+      <c r="D49" s="67"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -2540,7 +2528,7 @@
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
-      <c r="D50" s="68"/>
+      <c r="D50" s="67"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
@@ -2550,7 +2538,7 @@
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
-      <c r="D51" s="68"/>
+      <c r="D51" s="67"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
@@ -2560,7 +2548,7 @@
       <c r="A52" s="8"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="68"/>
+      <c r="D52" s="67"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
@@ -2570,7 +2558,7 @@
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
-      <c r="D53" s="68"/>
+      <c r="D53" s="67"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
@@ -2580,7 +2568,7 @@
       <c r="A54" s="8"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="68"/>
+      <c r="D54" s="67"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
@@ -2590,7 +2578,7 @@
       <c r="A55" s="8"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="68"/>
+      <c r="D55" s="67"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -2600,7 +2588,7 @@
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="68"/>
+      <c r="D56" s="67"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
@@ -2610,7 +2598,7 @@
       <c r="A57" s="8"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
-      <c r="D57" s="68"/>
+      <c r="D57" s="67"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
@@ -2620,7 +2608,7 @@
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
-      <c r="D58" s="68"/>
+      <c r="D58" s="67"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
@@ -2630,7 +2618,7 @@
       <c r="A59" s="8"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="68"/>
+      <c r="D59" s="67"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
@@ -2640,7 +2628,7 @@
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
-      <c r="D60" s="68"/>
+      <c r="D60" s="67"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
@@ -2650,7 +2638,7 @@
       <c r="A61" s="8"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="68"/>
+      <c r="D61" s="67"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
@@ -2660,7 +2648,7 @@
       <c r="A62" s="8"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="68"/>
+      <c r="D62" s="67"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -2670,7 +2658,7 @@
       <c r="A63" s="8"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="68"/>
+      <c r="D63" s="67"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
@@ -2680,7 +2668,7 @@
       <c r="A64" s="8"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="68"/>
+      <c r="D64" s="67"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
@@ -2690,7 +2678,7 @@
       <c r="A65" s="8"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="68"/>
+      <c r="D65" s="67"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
@@ -2700,7 +2688,7 @@
       <c r="A66" s="8"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="68"/>
+      <c r="D66" s="67"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
@@ -2710,7 +2698,7 @@
       <c r="A67" s="8"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="68"/>
+      <c r="D67" s="67"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
@@ -2720,7 +2708,7 @@
       <c r="A68" s="8"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
-      <c r="D68" s="68"/>
+      <c r="D68" s="67"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
@@ -2730,7 +2718,7 @@
       <c r="A69" s="8"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
-      <c r="D69" s="68"/>
+      <c r="D69" s="67"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
@@ -2740,7 +2728,7 @@
       <c r="A70" s="8"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="68"/>
+      <c r="D70" s="67"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
@@ -2750,7 +2738,7 @@
       <c r="A71" s="8"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
-      <c r="D71" s="68"/>
+      <c r="D71" s="67"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
@@ -2760,7 +2748,7 @@
       <c r="A72" s="8"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
-      <c r="D72" s="68"/>
+      <c r="D72" s="67"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -2770,7 +2758,7 @@
       <c r="A73" s="8"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
-      <c r="D73" s="68"/>
+      <c r="D73" s="67"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
@@ -2780,7 +2768,7 @@
       <c r="A74" s="8"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
-      <c r="D74" s="68"/>
+      <c r="D74" s="67"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -2790,7 +2778,7 @@
       <c r="A75" s="8"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
-      <c r="D75" s="68"/>
+      <c r="D75" s="67"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
@@ -2800,7 +2788,7 @@
       <c r="A76" s="8"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
-      <c r="D76" s="68"/>
+      <c r="D76" s="67"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
@@ -2810,7 +2798,7 @@
       <c r="A77" s="8"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
-      <c r="D77" s="68"/>
+      <c r="D77" s="67"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -2820,7 +2808,7 @@
       <c r="A78" s="8"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
-      <c r="D78" s="68"/>
+      <c r="D78" s="67"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
@@ -2830,7 +2818,7 @@
       <c r="A79" s="8"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
-      <c r="D79" s="68"/>
+      <c r="D79" s="67"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
@@ -2840,7 +2828,7 @@
       <c r="A80" s="8"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
-      <c r="D80" s="68"/>
+      <c r="D80" s="67"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
@@ -2850,7 +2838,7 @@
       <c r="A81" s="8"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
-      <c r="D81" s="68"/>
+      <c r="D81" s="67"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
@@ -2860,7 +2848,7 @@
       <c r="A82" s="8"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
-      <c r="D82" s="68"/>
+      <c r="D82" s="67"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
@@ -2870,7 +2858,7 @@
       <c r="A83" s="8"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
-      <c r="D83" s="68"/>
+      <c r="D83" s="67"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
@@ -2880,7 +2868,7 @@
       <c r="A84" s="8"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="68"/>
+      <c r="D84" s="67"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
@@ -2890,7 +2878,7 @@
       <c r="A85" s="8"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
-      <c r="D85" s="68"/>
+      <c r="D85" s="67"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
@@ -2900,7 +2888,7 @@
       <c r="A86" s="8"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
-      <c r="D86" s="68"/>
+      <c r="D86" s="67"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -2910,7 +2898,7 @@
       <c r="A87" s="8"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
-      <c r="D87" s="68"/>
+      <c r="D87" s="67"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
@@ -2920,7 +2908,7 @@
       <c r="A88" s="8"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
-      <c r="D88" s="68"/>
+      <c r="D88" s="67"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
@@ -2930,7 +2918,7 @@
       <c r="A89" s="8"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
-      <c r="D89" s="68"/>
+      <c r="D89" s="67"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
@@ -2940,7 +2928,7 @@
       <c r="A90" s="8"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
-      <c r="D90" s="68"/>
+      <c r="D90" s="67"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
@@ -2950,7 +2938,7 @@
       <c r="A91" s="8"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
-      <c r="D91" s="68"/>
+      <c r="D91" s="67"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -2960,7 +2948,7 @@
       <c r="A92" s="8"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
-      <c r="D92" s="68"/>
+      <c r="D92" s="67"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
@@ -2970,7 +2958,7 @@
       <c r="A93" s="8"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
-      <c r="D93" s="68"/>
+      <c r="D93" s="67"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
@@ -2980,7 +2968,7 @@
       <c r="A94" s="8"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
-      <c r="D94" s="68"/>
+      <c r="D94" s="67"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
@@ -2990,7 +2978,7 @@
       <c r="A95" s="8"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
-      <c r="D95" s="68"/>
+      <c r="D95" s="67"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
@@ -3000,7 +2988,7 @@
       <c r="A96" s="8"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
-      <c r="D96" s="68"/>
+      <c r="D96" s="67"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
@@ -3119,26 +3107,26 @@
       <c r="K5"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="64">
+      <c r="A6" s="79">
         <v>6</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="65"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="64"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="80"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="65"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="64"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="80"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -5518,7 +5506,7 @@
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="66" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="15"/>

--- a/amlak jahani.xlsx
+++ b/amlak jahani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omidr\OneDrive\دسکتاپ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324AE0BD-5817-44CF-BD08-C55308EFF590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9C2701-863A-40C3-92BB-F0CB3D10DD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="945" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
   <si>
     <t>متراژ</t>
   </si>
@@ -273,9 +273,6 @@
     <t>آقای سراج</t>
   </si>
   <si>
-    <t>۲۵۰ متر</t>
-  </si>
-  <si>
     <t>کلنگی</t>
   </si>
   <si>
@@ -289,6 +286,24 @@
   </si>
   <si>
     <t xml:space="preserve">هماهنگی با شماره. آخر سال تخلیه . بر ملک زیاده </t>
+  </si>
+  <si>
+    <t>آپارتمان ۱۴۰ متری دو خواب در حاشیه اصلی هدایت</t>
+  </si>
+  <si>
+    <t>خانم نقره کار</t>
+  </si>
+  <si>
+    <t>قولنامه</t>
+  </si>
+  <si>
+    <t>۱٬۶۸۰٬۰۰۰٬۰۰۰ تومان</t>
+  </si>
+  <si>
+    <t>بسم الله الرحمن الرحیم با سلام یک واحد آپارتمان ۱۴۰ متری واقع در حاشیه اصلی هدایت(بین هدایت ۱۷ و ۱۹ پلاک ۱۸۱) با تراس بزرگ و دلباز که کار حیاط رو انجام می‌دهد. همان طور که در عکس مشاهده می‌کنید.۴ تا فرش(۲ تا ۳در۴ و دو تا ۲در ۳) در حال پذیرایی و اتاق خواب ها ۳در ۵ و در آشپزخانه ۳در ۴می‌خورد. کف پارکت چوب.دیوارها کاغذ دیواری ترک (قابل شستشو). قابلیت ۳ خواب شدن. خانه فوق غرق در نور میباشد و همچنین امکانات رفاهی درمانگاه و داروخانه و افق کوروش و باشگاه و مسجد و ....موجود است. فوری ....به علت نیاز مالی وگرنه به هیچ وجه نمیفروختم .با تشکر</t>
+  </si>
+  <si>
+    <t>بازدید با هماهنگی  بالای کباب یاسر</t>
   </si>
 </sst>
 </file>
@@ -554,7 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -739,6 +754,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -771,6 +789,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1079,9 +1100,9 @@
   </sheetPr>
   <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1110,7 @@
     <col min="1" max="1" width="9.140625" style="61"/>
     <col min="2" max="2" width="41.7109375" style="63" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.7109375" style="63" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="66" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="63" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" style="62" bestFit="1" customWidth="1"/>
@@ -1102,7 +1123,7 @@
     <col min="14" max="14" width="11.28515625" style="62" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.140625" style="62" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" style="63" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18" style="83" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" style="85" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="9.140625" style="63"/>
     <col min="20" max="16384" width="9.140625" style="61"/>
   </cols>
@@ -1153,7 +1174,7 @@
       <c r="P1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="82" t="s">
+      <c r="Q1" s="84" t="s">
         <v>23</v>
       </c>
       <c r="R1" s="7"/>
@@ -1166,10 +1187,10 @@
       <c r="B2" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="77">
+      <c r="D2" s="79">
         <v>158</v>
       </c>
-      <c r="E2" s="77"/>
+      <c r="E2" s="79"/>
       <c r="F2" s="65">
         <v>1372</v>
       </c>
@@ -1185,7 +1206,7 @@
       <c r="K2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="77">
+      <c r="L2" s="79">
         <v>9383700217</v>
       </c>
       <c r="M2" s="62" t="s">
@@ -1200,7 +1221,7 @@
       <c r="P2" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="83" t="s">
+      <c r="Q2" s="85" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1214,10 +1235,10 @@
       <c r="C3" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="77">
+      <c r="D3" s="79">
         <v>115</v>
       </c>
-      <c r="E3" s="77"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="65" t="s">
         <v>28</v>
       </c>
@@ -1236,7 +1257,7 @@
       <c r="K3" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="77">
+      <c r="L3" s="79">
         <v>9355015515</v>
       </c>
       <c r="M3" s="62" t="s">
@@ -1251,7 +1272,7 @@
       <c r="P3" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="83" t="s">
+      <c r="Q3" s="85" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1265,11 +1286,11 @@
       <c r="C4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="77">
+      <c r="D4" s="79">
         <v>120</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77">
+      <c r="E4" s="79"/>
+      <c r="F4" s="79">
         <v>1385</v>
       </c>
       <c r="G4" s="62" t="s">
@@ -1302,7 +1323,7 @@
       <c r="P4" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1316,10 +1337,10 @@
       <c r="C5" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="77">
+      <c r="D5" s="79">
         <v>130</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="79">
         <v>96</v>
       </c>
       <c r="F5" s="64" t="s">
@@ -1346,7 +1367,7 @@
       <c r="M5" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" s="83" t="s">
+      <c r="Q5" s="85" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1360,13 +1381,13 @@
       <c r="C6" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="77">
+      <c r="D6" s="79">
         <v>160</v>
       </c>
       <c r="E6" s="63">
         <v>75</v>
       </c>
-      <c r="F6" s="77">
+      <c r="F6" s="79">
         <v>1399</v>
       </c>
       <c r="G6" s="62" t="s">
@@ -1384,13 +1405,13 @@
       <c r="K6" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="78">
+      <c r="L6" s="80">
         <v>9153228969</v>
       </c>
       <c r="M6" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="83" t="s">
+      <c r="Q6" s="85" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1404,50 +1425,88 @@
       <c r="C7" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="78">
+        <v>250</v>
+      </c>
+      <c r="F7" s="65" t="s">
         <v>62</v>
-      </c>
-      <c r="F7" s="65" t="s">
-        <v>63</v>
       </c>
       <c r="G7" s="65" t="s">
         <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L7" s="48">
         <v>9366709948</v>
       </c>
       <c r="M7" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q7" s="83" t="s">
         <v>66</v>
+      </c>
+      <c r="Q7" s="85" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61">
         <v>8</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="78">
+        <v>140</v>
+      </c>
+      <c r="F8" s="79">
+        <v>1386</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="44">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="48">
+        <v>9357468136</v>
+      </c>
+      <c r="M8" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>9</v>
       </c>
+      <c r="J9" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="K9" s="61"/>
       <c r="L9" s="61"/>
     </row>
@@ -1455,7 +1514,9 @@
       <c r="A10" s="61">
         <v>10</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="K10" s="61"/>
       <c r="L10" s="61"/>
     </row>
@@ -1463,7 +1524,9 @@
       <c r="A11" s="61">
         <v>11</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="K11" s="61"/>
       <c r="L11" s="61"/>
     </row>
@@ -1471,7 +1534,9 @@
       <c r="A12" s="61">
         <v>12</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="K12" s="61"/>
       <c r="L12" s="61"/>
     </row>
@@ -1512,15 +1577,15 @@
       </c>
       <c r="B17" s="63"/>
       <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="63"/>
       <c r="F17" s="65"/>
       <c r="I17" s="63"/>
       <c r="J17" s="3"/>
       <c r="K17" s="53"/>
-      <c r="L17" s="77"/>
+      <c r="L17" s="79"/>
       <c r="P17" s="63"/>
-      <c r="Q17" s="83"/>
+      <c r="Q17" s="85"/>
       <c r="R17" s="63"/>
       <c r="S17" s="63"/>
       <c r="T17" s="61"/>
@@ -1540,7 +1605,7 @@
       </c>
       <c r="B18" s="63"/>
       <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="63"/>
       <c r="F18" s="65"/>
       <c r="I18" s="63"/>
@@ -1548,7 +1613,7 @@
       <c r="K18" s="63"/>
       <c r="L18" s="63"/>
       <c r="P18" s="63"/>
-      <c r="Q18" s="83"/>
+      <c r="Q18" s="85"/>
       <c r="R18" s="63"/>
       <c r="S18" s="63"/>
       <c r="T18" s="61"/>
@@ -1568,7 +1633,7 @@
       </c>
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
-      <c r="D19" s="63"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="63"/>
       <c r="F19" s="65"/>
       <c r="I19" s="63"/>
@@ -1576,7 +1641,7 @@
       <c r="K19" s="60"/>
       <c r="L19" s="63"/>
       <c r="P19" s="63"/>
-      <c r="Q19" s="83"/>
+      <c r="Q19" s="85"/>
       <c r="R19" s="63"/>
       <c r="S19" s="63"/>
       <c r="T19" s="61"/>
@@ -1596,7 +1661,7 @@
       </c>
       <c r="B20" s="63"/>
       <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="63"/>
       <c r="F20" s="65"/>
       <c r="I20" s="63"/>
@@ -1604,7 +1669,7 @@
       <c r="K20" s="63"/>
       <c r="L20" s="63"/>
       <c r="P20" s="63"/>
-      <c r="Q20" s="83"/>
+      <c r="Q20" s="85"/>
       <c r="R20" s="63"/>
       <c r="S20" s="63"/>
       <c r="T20" s="61"/>
@@ -1624,7 +1689,7 @@
       </c>
       <c r="B21" s="63"/>
       <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="63"/>
       <c r="F21" s="65"/>
       <c r="I21" s="63"/>
@@ -1632,7 +1697,7 @@
       <c r="K21" s="63"/>
       <c r="L21" s="63"/>
       <c r="P21" s="63"/>
-      <c r="Q21" s="83"/>
+      <c r="Q21" s="85"/>
       <c r="R21" s="63"/>
       <c r="S21" s="63"/>
       <c r="T21" s="61"/>
@@ -1652,7 +1717,7 @@
       </c>
       <c r="B22" s="63"/>
       <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="63"/>
       <c r="F22" s="65"/>
       <c r="I22" s="63"/>
@@ -1660,7 +1725,7 @@
       <c r="K22" s="63"/>
       <c r="L22" s="63"/>
       <c r="P22" s="63"/>
-      <c r="Q22" s="83"/>
+      <c r="Q22" s="85"/>
       <c r="R22" s="63"/>
       <c r="S22" s="63"/>
       <c r="T22" s="61"/>
@@ -1680,7 +1745,7 @@
       </c>
       <c r="B23" s="63"/>
       <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="63"/>
       <c r="F23" s="65"/>
       <c r="I23" s="63"/>
@@ -1688,7 +1753,7 @@
       <c r="K23" s="63"/>
       <c r="L23" s="63"/>
       <c r="P23" s="63"/>
-      <c r="Q23" s="83"/>
+      <c r="Q23" s="85"/>
       <c r="R23" s="63"/>
       <c r="S23" s="63"/>
       <c r="T23" s="61"/>
@@ -1708,7 +1773,7 @@
       </c>
       <c r="B24" s="63"/>
       <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="63"/>
       <c r="F24" s="65"/>
       <c r="I24" s="63"/>
@@ -1716,7 +1781,7 @@
       <c r="K24" s="63"/>
       <c r="L24" s="63"/>
       <c r="P24" s="63"/>
-      <c r="Q24" s="83"/>
+      <c r="Q24" s="85"/>
       <c r="R24" s="63"/>
       <c r="S24" s="63"/>
       <c r="T24" s="61"/>
@@ -1740,9 +1805,11 @@
     <hyperlink ref="J6" r:id="rId5" xr:uid="{F20DBCFB-DF70-4018-906A-5C767E314645}"/>
     <hyperlink ref="J5:J6" r:id="rId6" display="دیوار" xr:uid="{E19DCAC7-065E-4C88-912D-9C22EA38F062}"/>
     <hyperlink ref="J7" r:id="rId7" xr:uid="{AF5E9BD4-40A3-403B-A360-B6D915662BE1}"/>
+    <hyperlink ref="J8:J12" r:id="rId8" display="دیوار" xr:uid="{9BD94081-BDE5-4AAF-94CF-50EA871A1B14}"/>
+    <hyperlink ref="J8" r:id="rId9" xr:uid="{965DE82A-0CA5-4B93-9D31-52F0FF1B6D6E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -1778,7 +1845,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="19" t="s">
@@ -1787,7 +1854,7 @@
       <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="76" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="19" t="s">
@@ -1799,7 +1866,7 @@
       <c r="G1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="77" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="7" t="s">
@@ -1830,11 +1897,11 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="73"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="66"/>
+      <c r="H2" s="67"/>
       <c r="J2" s="46">
         <v>9152404039</v>
       </c>
@@ -1845,7 +1912,7 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="67"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -1856,12 +1923,12 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="68">
+      <c r="A4" s="69">
         <v>4</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="67"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -1877,7 +1944,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="67"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1893,7 +1960,7 @@
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="67"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1908,7 +1975,7 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="67"/>
+      <c r="D7" s="68"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1919,12 +1986,12 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="68">
+      <c r="A8" s="69">
         <v>8</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="67"/>
+      <c r="D8" s="68"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1940,7 +2007,7 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="67"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -1954,7 +2021,7 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="67"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -1970,7 +2037,7 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="67"/>
+      <c r="D11" s="68"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -1981,12 +2048,12 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="68">
+      <c r="A12" s="69">
         <v>12</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="67"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -2002,7 +2069,7 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="67"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -2018,7 +2085,7 @@
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="67"/>
+      <c r="D14" s="68"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2034,7 +2101,7 @@
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="67"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -2045,12 +2112,12 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="68">
+      <c r="A16" s="69">
         <v>16</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="67"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -2066,7 +2133,7 @@
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="67"/>
+      <c r="D17" s="68"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -2092,7 +2159,7 @@
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="67"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -2118,7 +2185,7 @@
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="67"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -2139,16 +2206,16 @@
       <c r="Y19" s="37"/>
     </row>
     <row r="20" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="69">
+      <c r="A20" s="70">
         <v>20</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="72"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="73"/>
       <c r="J20" s="57" t="s">
         <v>15</v>
       </c>
@@ -2172,7 +2239,7 @@
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="67"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -2195,7 +2262,7 @@
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="67"/>
+      <c r="D22" s="68"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -2221,7 +2288,7 @@
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="67"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -2239,12 +2306,12 @@
       <c r="Y23" s="37"/>
     </row>
     <row r="24" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="68">
+      <c r="A24" s="69">
         <v>24</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="67"/>
+      <c r="D24" s="68"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -2267,7 +2334,7 @@
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="67"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -2288,7 +2355,7 @@
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="67"/>
+      <c r="D26" s="68"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -2298,7 +2365,7 @@
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="67"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -2308,7 +2375,7 @@
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="67"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -2318,7 +2385,7 @@
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="67"/>
+      <c r="D29" s="68"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -2328,7 +2395,7 @@
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="67"/>
+      <c r="D30" s="68"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -2338,7 +2405,7 @@
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="67"/>
+      <c r="D31" s="68"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -2348,7 +2415,7 @@
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="67"/>
+      <c r="D32" s="68"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -2358,7 +2425,7 @@
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="67"/>
+      <c r="D33" s="68"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -2368,7 +2435,7 @@
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="67"/>
+      <c r="D34" s="68"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -2378,7 +2445,7 @@
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="67"/>
+      <c r="D35" s="68"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -2388,7 +2455,7 @@
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="67"/>
+      <c r="D36" s="68"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
@@ -2398,7 +2465,7 @@
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="67"/>
+      <c r="D37" s="68"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
@@ -2408,7 +2475,7 @@
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="67"/>
+      <c r="D38" s="68"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -2418,7 +2485,7 @@
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="67"/>
+      <c r="D39" s="68"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
@@ -2428,7 +2495,7 @@
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="67"/>
+      <c r="D40" s="68"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
@@ -2438,7 +2505,7 @@
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="67"/>
+      <c r="D41" s="68"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -2448,7 +2515,7 @@
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="67"/>
+      <c r="D42" s="68"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -2458,7 +2525,7 @@
       <c r="A43" s="8"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="67"/>
+      <c r="D43" s="68"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
@@ -2468,7 +2535,7 @@
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="67"/>
+      <c r="D44" s="68"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -2478,7 +2545,7 @@
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="67"/>
+      <c r="D45" s="68"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -2488,7 +2555,7 @@
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="67"/>
+      <c r="D46" s="68"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
@@ -2498,7 +2565,7 @@
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="67"/>
+      <c r="D47" s="68"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
@@ -2508,7 +2575,7 @@
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="67"/>
+      <c r="D48" s="68"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
@@ -2518,7 +2585,7 @@
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
-      <c r="D49" s="67"/>
+      <c r="D49" s="68"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -2528,7 +2595,7 @@
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
-      <c r="D50" s="67"/>
+      <c r="D50" s="68"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
@@ -2538,7 +2605,7 @@
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
-      <c r="D51" s="67"/>
+      <c r="D51" s="68"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
@@ -2548,7 +2615,7 @@
       <c r="A52" s="8"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="67"/>
+      <c r="D52" s="68"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
@@ -2558,7 +2625,7 @@
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
-      <c r="D53" s="67"/>
+      <c r="D53" s="68"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
@@ -2568,7 +2635,7 @@
       <c r="A54" s="8"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="67"/>
+      <c r="D54" s="68"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
@@ -2578,7 +2645,7 @@
       <c r="A55" s="8"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="67"/>
+      <c r="D55" s="68"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -2588,7 +2655,7 @@
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="67"/>
+      <c r="D56" s="68"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
@@ -2598,7 +2665,7 @@
       <c r="A57" s="8"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
-      <c r="D57" s="67"/>
+      <c r="D57" s="68"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
@@ -2608,7 +2675,7 @@
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
-      <c r="D58" s="67"/>
+      <c r="D58" s="68"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
@@ -2618,7 +2685,7 @@
       <c r="A59" s="8"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="67"/>
+      <c r="D59" s="68"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
@@ -2628,7 +2695,7 @@
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
-      <c r="D60" s="67"/>
+      <c r="D60" s="68"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
@@ -2638,7 +2705,7 @@
       <c r="A61" s="8"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="67"/>
+      <c r="D61" s="68"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
@@ -2648,7 +2715,7 @@
       <c r="A62" s="8"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="67"/>
+      <c r="D62" s="68"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -2658,7 +2725,7 @@
       <c r="A63" s="8"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="67"/>
+      <c r="D63" s="68"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
@@ -2668,7 +2735,7 @@
       <c r="A64" s="8"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="67"/>
+      <c r="D64" s="68"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
@@ -2678,7 +2745,7 @@
       <c r="A65" s="8"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="67"/>
+      <c r="D65" s="68"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
@@ -2688,7 +2755,7 @@
       <c r="A66" s="8"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="67"/>
+      <c r="D66" s="68"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
@@ -2698,7 +2765,7 @@
       <c r="A67" s="8"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="67"/>
+      <c r="D67" s="68"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
@@ -2708,7 +2775,7 @@
       <c r="A68" s="8"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
-      <c r="D68" s="67"/>
+      <c r="D68" s="68"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
@@ -2718,7 +2785,7 @@
       <c r="A69" s="8"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
-      <c r="D69" s="67"/>
+      <c r="D69" s="68"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
@@ -2728,7 +2795,7 @@
       <c r="A70" s="8"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="67"/>
+      <c r="D70" s="68"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
@@ -2738,7 +2805,7 @@
       <c r="A71" s="8"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
-      <c r="D71" s="67"/>
+      <c r="D71" s="68"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
@@ -2748,7 +2815,7 @@
       <c r="A72" s="8"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
-      <c r="D72" s="67"/>
+      <c r="D72" s="68"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -2758,7 +2825,7 @@
       <c r="A73" s="8"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
-      <c r="D73" s="67"/>
+      <c r="D73" s="68"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
@@ -2768,7 +2835,7 @@
       <c r="A74" s="8"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
-      <c r="D74" s="67"/>
+      <c r="D74" s="68"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -2778,7 +2845,7 @@
       <c r="A75" s="8"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
-      <c r="D75" s="67"/>
+      <c r="D75" s="68"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
@@ -2788,7 +2855,7 @@
       <c r="A76" s="8"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
-      <c r="D76" s="67"/>
+      <c r="D76" s="68"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
@@ -2798,7 +2865,7 @@
       <c r="A77" s="8"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
-      <c r="D77" s="67"/>
+      <c r="D77" s="68"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -2808,7 +2875,7 @@
       <c r="A78" s="8"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
-      <c r="D78" s="67"/>
+      <c r="D78" s="68"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
@@ -2818,7 +2885,7 @@
       <c r="A79" s="8"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
-      <c r="D79" s="67"/>
+      <c r="D79" s="68"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
@@ -2828,7 +2895,7 @@
       <c r="A80" s="8"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
-      <c r="D80" s="67"/>
+      <c r="D80" s="68"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
@@ -2838,7 +2905,7 @@
       <c r="A81" s="8"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
-      <c r="D81" s="67"/>
+      <c r="D81" s="68"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
@@ -2848,7 +2915,7 @@
       <c r="A82" s="8"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
-      <c r="D82" s="67"/>
+      <c r="D82" s="68"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
@@ -2858,7 +2925,7 @@
       <c r="A83" s="8"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
-      <c r="D83" s="67"/>
+      <c r="D83" s="68"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
@@ -2868,7 +2935,7 @@
       <c r="A84" s="8"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="67"/>
+      <c r="D84" s="68"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
@@ -2878,7 +2945,7 @@
       <c r="A85" s="8"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
-      <c r="D85" s="67"/>
+      <c r="D85" s="68"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
@@ -2888,7 +2955,7 @@
       <c r="A86" s="8"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
-      <c r="D86" s="67"/>
+      <c r="D86" s="68"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -2898,7 +2965,7 @@
       <c r="A87" s="8"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
-      <c r="D87" s="67"/>
+      <c r="D87" s="68"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
@@ -2908,7 +2975,7 @@
       <c r="A88" s="8"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
-      <c r="D88" s="67"/>
+      <c r="D88" s="68"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
@@ -2918,7 +2985,7 @@
       <c r="A89" s="8"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
-      <c r="D89" s="67"/>
+      <c r="D89" s="68"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
@@ -2928,7 +2995,7 @@
       <c r="A90" s="8"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
-      <c r="D90" s="67"/>
+      <c r="D90" s="68"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
@@ -2938,7 +3005,7 @@
       <c r="A91" s="8"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
-      <c r="D91" s="67"/>
+      <c r="D91" s="68"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -2948,7 +3015,7 @@
       <c r="A92" s="8"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
-      <c r="D92" s="67"/>
+      <c r="D92" s="68"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
@@ -2958,7 +3025,7 @@
       <c r="A93" s="8"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
-      <c r="D93" s="67"/>
+      <c r="D93" s="68"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
@@ -2968,7 +3035,7 @@
       <c r="A94" s="8"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
-      <c r="D94" s="67"/>
+      <c r="D94" s="68"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
@@ -2978,7 +3045,7 @@
       <c r="A95" s="8"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
-      <c r="D95" s="67"/>
+      <c r="D95" s="68"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
@@ -2988,7 +3055,7 @@
       <c r="A96" s="8"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
-      <c r="D96" s="67"/>
+      <c r="D96" s="68"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
@@ -3107,26 +3174,26 @@
       <c r="K5"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="79">
+      <c r="A6" s="81">
         <v>6</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="80"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="79"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="82"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="81"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="80"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="79"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="82"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="81"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -5506,7 +5573,7 @@
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="67" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="15"/>

--- a/amlak jahani.xlsx
+++ b/amlak jahani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omidr\OneDrive\دسکتاپ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9C2701-863A-40C3-92BB-F0CB3D10DD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27B22E0-AE14-4185-870A-BFE5AD848285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="945" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="فروش ویلایی" sheetId="6" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="81">
   <si>
     <t>متراژ</t>
   </si>
@@ -305,6 +305,30 @@
   <si>
     <t>بازدید با هماهنگی  بالای کباب یاسر</t>
   </si>
+  <si>
+    <t>منزل مسکونی دربست</t>
+  </si>
+  <si>
+    <t>آقای نیکوکار</t>
+  </si>
+  <si>
+    <t>140 متر</t>
+  </si>
+  <si>
+    <t>ملک 6 دنگ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> تومان 3200000000</t>
+  </si>
+  <si>
+    <t>خونه سال 89 بازسازی شده تخلیه و آماده</t>
+  </si>
+  <si>
+    <t>مطهر ی7 حسین باشی  21 نبش ابوالخیر 1 پ 25  آقای نیکوکار</t>
+  </si>
+  <si>
+    <t>30/11/1401</t>
+  </si>
 </sst>
 </file>
 
@@ -312,7 +336,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-3000401]0"/>
-    <numFmt numFmtId="166" formatCode="[$-960429]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-960429]dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -569,7 +593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -799,6 +823,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -806,12 +839,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1100,9 +1127,9 @@
   </sheetPr>
   <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomLeft" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1150,7 @@
     <col min="14" max="14" width="11.28515625" style="62" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.140625" style="62" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" style="63" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18" style="85" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" style="83" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="9.140625" style="63"/>
     <col min="20" max="16384" width="9.140625" style="61"/>
   </cols>
@@ -1174,7 +1201,7 @@
       <c r="P1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="84" t="s">
+      <c r="Q1" s="82" t="s">
         <v>23</v>
       </c>
       <c r="R1" s="7"/>
@@ -1221,7 +1248,7 @@
       <c r="P2" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="85" t="s">
+      <c r="Q2" s="83" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1272,7 +1299,7 @@
       <c r="P3" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="85" t="s">
+      <c r="Q3" s="83" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1323,7 +1350,7 @@
       <c r="P4" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="83" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1367,7 +1394,7 @@
       <c r="M5" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" s="85" t="s">
+      <c r="Q5" s="83" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1411,7 +1438,7 @@
       <c r="M6" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="85" t="s">
+      <c r="Q6" s="83" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1449,7 +1476,7 @@
       <c r="M7" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="Q7" s="85" t="s">
+      <c r="Q7" s="83" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1504,11 +1531,39 @@
       <c r="A9" s="5">
         <v>9</v>
       </c>
+      <c r="B9" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
       <c r="J9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
+      <c r="K9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="61">
+        <v>9015221847</v>
+      </c>
+      <c r="M9" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="83" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61">
@@ -1585,7 +1640,7 @@
       <c r="K17" s="53"/>
       <c r="L17" s="79"/>
       <c r="P17" s="63"/>
-      <c r="Q17" s="85"/>
+      <c r="Q17" s="83"/>
       <c r="R17" s="63"/>
       <c r="S17" s="63"/>
       <c r="T17" s="61"/>
@@ -1613,7 +1668,7 @@
       <c r="K18" s="63"/>
       <c r="L18" s="63"/>
       <c r="P18" s="63"/>
-      <c r="Q18" s="85"/>
+      <c r="Q18" s="83"/>
       <c r="R18" s="63"/>
       <c r="S18" s="63"/>
       <c r="T18" s="61"/>
@@ -1641,7 +1696,7 @@
       <c r="K19" s="60"/>
       <c r="L19" s="63"/>
       <c r="P19" s="63"/>
-      <c r="Q19" s="85"/>
+      <c r="Q19" s="83"/>
       <c r="R19" s="63"/>
       <c r="S19" s="63"/>
       <c r="T19" s="61"/>
@@ -1669,7 +1724,7 @@
       <c r="K20" s="63"/>
       <c r="L20" s="63"/>
       <c r="P20" s="63"/>
-      <c r="Q20" s="85"/>
+      <c r="Q20" s="83"/>
       <c r="R20" s="63"/>
       <c r="S20" s="63"/>
       <c r="T20" s="61"/>
@@ -1697,7 +1752,7 @@
       <c r="K21" s="63"/>
       <c r="L21" s="63"/>
       <c r="P21" s="63"/>
-      <c r="Q21" s="85"/>
+      <c r="Q21" s="83"/>
       <c r="R21" s="63"/>
       <c r="S21" s="63"/>
       <c r="T21" s="61"/>
@@ -1725,7 +1780,7 @@
       <c r="K22" s="63"/>
       <c r="L22" s="63"/>
       <c r="P22" s="63"/>
-      <c r="Q22" s="85"/>
+      <c r="Q22" s="83"/>
       <c r="R22" s="63"/>
       <c r="S22" s="63"/>
       <c r="T22" s="61"/>
@@ -1753,7 +1808,7 @@
       <c r="K23" s="63"/>
       <c r="L23" s="63"/>
       <c r="P23" s="63"/>
-      <c r="Q23" s="85"/>
+      <c r="Q23" s="83"/>
       <c r="R23" s="63"/>
       <c r="S23" s="63"/>
       <c r="T23" s="61"/>
@@ -1781,7 +1836,7 @@
       <c r="K24" s="63"/>
       <c r="L24" s="63"/>
       <c r="P24" s="63"/>
-      <c r="Q24" s="85"/>
+      <c r="Q24" s="83"/>
       <c r="R24" s="63"/>
       <c r="S24" s="63"/>
       <c r="T24" s="61"/>
@@ -1807,9 +1862,10 @@
     <hyperlink ref="J7" r:id="rId7" xr:uid="{AF5E9BD4-40A3-403B-A360-B6D915662BE1}"/>
     <hyperlink ref="J8:J12" r:id="rId8" display="دیوار" xr:uid="{9BD94081-BDE5-4AAF-94CF-50EA871A1B14}"/>
     <hyperlink ref="J8" r:id="rId9" xr:uid="{965DE82A-0CA5-4B93-9D31-52F0FF1B6D6E}"/>
+    <hyperlink ref="J9" r:id="rId10" xr:uid="{DF130086-CA1F-4083-9863-05EC89008A39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -3174,26 +3230,26 @@
       <c r="K5"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="81">
+      <c r="A6" s="84">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="82"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="81"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="85"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="82"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="81"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="85"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="84"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="33">

--- a/amlak jahani.xlsx
+++ b/amlak jahani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omidr\OneDrive\دسکتاپ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27B22E0-AE14-4185-870A-BFE5AD848285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E9742A-8461-4646-ABC8-602260FDEF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="285" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="فروش ویلایی" sheetId="6" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>متراژ</t>
   </si>
@@ -328,6 +328,41 @@
   </si>
   <si>
     <t>30/11/1401</t>
+  </si>
+  <si>
+    <t>منزل ویلایی بازسازی شده</t>
+  </si>
+  <si>
+    <t>صحافیان</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> اوقاف شش دنگ</t>
+  </si>
+  <si>
+    <t>منزل ویلایی بازسازی شده غرق نور قابل سکونت برای دو خانوار در دو طبقه کولر گازی و ابی، ایزوگام جدید، آشپزخانه بزرگ با کابینت های فراوان، کف سرامیک، پنجره های دو جداره، کمددیواری، کاغذ دیواری ترک و....</t>
+  </si>
+  <si>
+    <t>مطهری شمالی پنج بن بست یک نیم متری پ 96</t>
+  </si>
+  <si>
+    <t>آپارتمان 124 متری دو خوابه مطهری شمالی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمدرضا عباسی </t>
+  </si>
+  <si>
+    <t>وکالت محضری از سند مادر</t>
+  </si>
+  <si>
+    <t>۲٬۹۵۰٬۰۰۰٬۰۰۰ تومان</t>
+  </si>
+  <si>
+    <t>آپارتمان 124 متری دو خوابه کل مجموعه 5 واحد هر طبقه یک واحد طبقه 4 سال ساخت 1399 نورگیری عالی امتیازات آب و برق و گاز مستقل و جدا تلفن ثابت سرویس ایرانی سرویس فرنگی جایش تدارک دیده شده کف سرامیک کمد دیواری بزرگ در هر دو اتاق کابینت ام دی اف ؛ چوب شیک و زیبا گاز رومیزی پکیج ؛ رادیات 5 دستگاه کولر گازی لوله کشی ها انجام شده است تراس ؛ آسانسور ؛ پارکینگ ؛ انباری پنجره ها دوجداره کشویی درب ضد سرقت ؛ آیفون تصویری قیمت = 2/950/000/000 نوع سند : وکالت محضری بسیار بسیار عالی و خوش نقشه پسند مشکل پسندان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آدرس : مطهری شمالی 20 ؛ شهید حسین زاده 15 ؛ بعد از چهارراه اول ؛ پلاک 28 ؛ طبقه چهارم ؛ زنگ پنجم 
+یا  :  شهید شیشه چی 11 ؛ پلاک 28
+محمدرضا عباسی با هماهنگی </t>
   </si>
 </sst>
 </file>
@@ -593,7 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -832,6 +867,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -840,6 +881,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1127,9 +1171,9 @@
   </sheetPr>
   <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1569,21 +1613,104 @@
       <c r="A10" s="61">
         <v>10</v>
       </c>
+      <c r="B10" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="78">
+        <v>200</v>
+      </c>
+      <c r="E10" s="79">
+        <v>185</v>
+      </c>
+      <c r="F10" s="79">
+        <v>1399</v>
+      </c>
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="62">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
       <c r="J10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="48">
+        <v>9353411703</v>
+      </c>
+      <c r="M10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="83" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61">
         <v>11</v>
       </c>
+      <c r="B11" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="78">
+        <v>124</v>
+      </c>
+      <c r="F11" s="79">
+        <v>1399</v>
+      </c>
+      <c r="G11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="62">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>89</v>
+      </c>
       <c r="J11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
+      <c r="K11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="48">
+        <v>9155105515</v>
+      </c>
+      <c r="M11" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="N11" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="83" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="61">
@@ -1863,9 +1990,11 @@
     <hyperlink ref="J8:J12" r:id="rId8" display="دیوار" xr:uid="{9BD94081-BDE5-4AAF-94CF-50EA871A1B14}"/>
     <hyperlink ref="J8" r:id="rId9" xr:uid="{965DE82A-0CA5-4B93-9D31-52F0FF1B6D6E}"/>
     <hyperlink ref="J9" r:id="rId10" xr:uid="{DF130086-CA1F-4083-9863-05EC89008A39}"/>
+    <hyperlink ref="J10" r:id="rId11" xr:uid="{7569B981-4728-4FA3-8402-1B0F45DB3545}"/>
+    <hyperlink ref="J11" r:id="rId12" xr:uid="{0FBD9831-4607-4337-ADA7-979777C8F847}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -3230,26 +3359,26 @@
       <c r="K5"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="84">
+      <c r="A6" s="86">
         <v>6</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="85"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="84"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="87"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="86"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="85"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="84"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="87"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="86"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="33">

--- a/amlak jahani.xlsx
+++ b/amlak jahani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omidr\OneDrive\دسکتاپ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E9742A-8461-4646-ABC8-602260FDEF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81537426-E053-4856-BE8D-FFF01BE77FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1410" yWindow="285" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="98">
   <si>
     <t>متراژ</t>
   </si>
@@ -363,6 +363,24 @@
     <t xml:space="preserve">آدرس : مطهری شمالی 20 ؛ شهید حسین زاده 15 ؛ بعد از چهارراه اول ؛ پلاک 28 ؛ طبقه چهارم ؛ زنگ پنجم 
 یا  :  شهید شیشه چی 11 ؛ پلاک 28
 محمدرضا عباسی با هماهنگی </t>
+  </si>
+  <si>
+    <t>آپارتمان ۹۵ متری مطهری شمالی</t>
+  </si>
+  <si>
+    <t>خانم رنجبر (در مشهد سکونت ندارد)</t>
+  </si>
+  <si>
+    <t>۱٬۷۰۰٬۰۰۰٬۰۰۰ تومان</t>
+  </si>
+  <si>
+    <t>سلام ملک در محیطی ارام . همسایه های خوب . نزدیک به ایستگاه اتوبوس . نانوایی . مسجد . فروشگاه کوروش . ....</t>
+  </si>
+  <si>
+    <t>۰۹۱۵۱۰۱۹۱۵۲ شماره مالک</t>
+  </si>
+  <si>
+    <t>مطهری  شمالی 60 پ 19  هر طبقه 2 واحد بازدید روز باشد خونه دست مستاجره با این شماره همانگ شود: 09335185332 آقای موسوی</t>
   </si>
 </sst>
 </file>
@@ -1171,9 +1189,9 @@
   </sheetPr>
   <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1716,17 +1734,53 @@
       <c r="A12" s="61">
         <v>12</v>
       </c>
+      <c r="B12" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="66">
+        <v>95</v>
+      </c>
+      <c r="F12" s="79">
+        <v>1388</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="84">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>94</v>
+      </c>
       <c r="J12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
+      <c r="K12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="P12" s="84" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61">
         <v>13</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="F13" s="79"/>
+      <c r="J13" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="K13" s="61"/>
       <c r="L13" s="61"/>
     </row>
@@ -1734,7 +1788,12 @@
       <c r="A14" s="5">
         <v>14</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="F14" s="79"/>
+      <c r="J14" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="K14" s="61"/>
       <c r="L14" s="61"/>
     </row>
@@ -1742,14 +1801,24 @@
       <c r="A15" s="61">
         <v>15</v>
       </c>
-      <c r="J15" s="3"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="F15" s="79"/>
+      <c r="J15" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="L15" s="61"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="61">
         <v>16</v>
       </c>
-      <c r="J16" s="3"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="F16" s="79"/>
+      <c r="J16" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="K16" s="61"/>
       <c r="L16" s="61"/>
     </row>
@@ -1757,13 +1826,15 @@
       <c r="A17" s="61">
         <v>17</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="66"/>
       <c r="E17" s="63"/>
-      <c r="F17" s="65"/>
+      <c r="F17" s="79"/>
       <c r="I17" s="63"/>
-      <c r="J17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="K17" s="53"/>
       <c r="L17" s="79"/>
       <c r="P17" s="63"/>
@@ -1785,13 +1856,15 @@
       <c r="A18" s="61">
         <v>18</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="66"/>
       <c r="E18" s="63"/>
-      <c r="F18" s="65"/>
+      <c r="F18" s="79"/>
       <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
+      <c r="J18" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="K18" s="63"/>
       <c r="L18" s="63"/>
       <c r="P18" s="63"/>
@@ -1814,12 +1887,14 @@
         <v>19</v>
       </c>
       <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="66"/>
       <c r="E19" s="63"/>
-      <c r="F19" s="65"/>
+      <c r="F19" s="79"/>
       <c r="I19" s="63"/>
-      <c r="J19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="K19" s="60"/>
       <c r="L19" s="63"/>
       <c r="P19" s="63"/>
@@ -1845,9 +1920,11 @@
       <c r="C20" s="63"/>
       <c r="D20" s="66"/>
       <c r="E20" s="63"/>
-      <c r="F20" s="65"/>
+      <c r="F20" s="79"/>
       <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
+      <c r="J20" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="K20" s="63"/>
       <c r="L20" s="63"/>
       <c r="P20" s="63"/>
@@ -1873,9 +1950,11 @@
       <c r="C21" s="63"/>
       <c r="D21" s="66"/>
       <c r="E21" s="63"/>
-      <c r="F21" s="65"/>
+      <c r="F21" s="79"/>
       <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
+      <c r="J21" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="K21" s="63"/>
       <c r="L21" s="63"/>
       <c r="P21" s="63"/>
@@ -1992,9 +2071,11 @@
     <hyperlink ref="J9" r:id="rId10" xr:uid="{DF130086-CA1F-4083-9863-05EC89008A39}"/>
     <hyperlink ref="J10" r:id="rId11" xr:uid="{7569B981-4728-4FA3-8402-1B0F45DB3545}"/>
     <hyperlink ref="J11" r:id="rId12" xr:uid="{0FBD9831-4607-4337-ADA7-979777C8F847}"/>
+    <hyperlink ref="J13:J21" r:id="rId13" display="دیوار" xr:uid="{829A0DBC-4159-48F9-9543-CC710C49AEA2}"/>
+    <hyperlink ref="J12" r:id="rId14" xr:uid="{E5C5D40B-29D1-4B85-9EC7-2F5C6F59FBE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
